--- a/homework/Шаблон СЯ татуаж.xlsx
+++ b/homework/Шаблон СЯ татуаж.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20610" windowHeight="11640"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Ключ</t>
   </si>
@@ -79,12 +79,18 @@
   </si>
   <si>
     <t>перекрытие старого татуажа</t>
+  </si>
+  <si>
+    <t>татуаж больно ли делать</t>
+  </si>
+  <si>
+    <t>татуаж на</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -111,7 +117,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -176,11 +182,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -214,13 +229,44 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -487,7 +533,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -495,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,7 +598,9 @@
       <c r="C3" s="7">
         <v>4066</v>
       </c>
-      <c r="D3" s="7"/>
+      <c r="D3" s="7">
+        <v>11</v>
+      </c>
       <c r="E3" s="6" t="s">
         <v>10</v>
       </c>
@@ -567,7 +615,9 @@
       <c r="C4" s="7">
         <v>2822</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7">
+        <v>9</v>
+      </c>
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -580,7 +630,9 @@
       <c r="C5" s="7">
         <v>1625</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="7">
+        <v>10</v>
+      </c>
       <c r="E5" s="6" t="s">
         <v>11</v>
       </c>
@@ -601,87 +653,93 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
+      <c r="A7" s="2"/>
       <c r="B7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="7">
-        <v>2362</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="6" t="s">
-        <v>13</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7">
+        <v>7</v>
+      </c>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C8" s="7">
-        <v>7477</v>
+        <v>2362</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C9" s="7">
-        <v>1491</v>
+        <v>7477</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10" s="7">
-        <v>1731</v>
+        <v>1491</v>
       </c>
       <c r="D10" s="7"/>
-      <c r="E10" s="6"/>
+      <c r="E10" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="9">
-        <v>290</v>
-      </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1731</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="6"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="9">
+        <v>290</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="1"/>
@@ -689,7 +747,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="1"/>
@@ -697,25 +755,24 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="1"/>
       <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="8"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="6"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
@@ -724,7 +781,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="7"/>
@@ -733,7 +790,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="7"/>
@@ -742,7 +799,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
@@ -751,25 +808,25 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>20</v>
-      </c>
-      <c r="B21" s="8"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="6"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="6"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>21</v>
-      </c>
-      <c r="B22" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="8"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="6"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="7"/>
@@ -778,70 +835,70 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>23</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="6"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>32</v>
-      </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="6"/>
+        <v>31</v>
+      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>33</v>
-      </c>
-      <c r="B34" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="B34" s="8"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="6"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="7"/>
@@ -850,7 +907,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="7"/>
@@ -859,7 +916,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="7"/>
@@ -868,7 +925,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="7"/>
@@ -877,7 +934,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="7"/>
@@ -886,7 +943,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="7"/>
@@ -895,7 +952,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="7"/>
@@ -904,7 +961,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="7"/>
@@ -913,7 +970,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="6"/>
       <c r="C43" s="7"/>
@@ -922,7 +979,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="6"/>
       <c r="C44" s="7"/>
@@ -931,7 +988,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="6"/>
       <c r="C45" s="7"/>
@@ -940,7 +997,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="7"/>
@@ -949,7 +1006,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="6"/>
       <c r="C47" s="7"/>
@@ -958,7 +1015,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="6"/>
       <c r="C48" s="7"/>
@@ -967,7 +1024,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="6"/>
       <c r="C49" s="7"/>
@@ -976,12 +1033,21 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" s="6"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
       <c r="E50" s="6"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>49</v>
+      </c>
+      <c r="B51" s="6"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
